--- a/Instructions.xlsx
+++ b/Instructions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giova\Desktop\Maua-V\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{852BC7C1-8316-4D15-8CED-DDE677DE3589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4914BA33-DA0E-4850-8846-0CB8A54F01C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12216" activeTab="3" xr2:uid="{8DA72A7F-A456-49E4-8B2E-F4A65AE08799}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{8DA72A7F-A456-49E4-8B2E-F4A65AE08799}"/>
   </bookViews>
   <sheets>
     <sheet name="W-Func" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
   <si>
     <t>func</t>
   </si>
@@ -83,9 +83,6 @@
     <t xml:space="preserve">func1 </t>
   </si>
   <si>
-    <t>Move in Registers  (M.M.)</t>
-  </si>
-  <si>
     <t>Func</t>
   </si>
   <si>
@@ -141,13 +138,28 @@
   </si>
   <si>
     <t>Meaning</t>
+  </si>
+  <si>
+    <t>Move Registers to  Memory  (M.R.M.)</t>
+  </si>
+  <si>
+    <t>Move Memory to  Registers  (M.M.R.)</t>
+  </si>
+  <si>
+    <t>M.R.M</t>
+  </si>
+  <si>
+    <t>M.M.R</t>
+  </si>
+  <si>
+    <t>Move in Registers  (M.R.)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,6 +169,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -282,7 +302,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -296,10 +316,54 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -311,81 +375,52 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -722,8 +757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0F02056-F6E8-4FE1-BF76-E724F206F91A}">
   <dimension ref="A1:AF7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -732,40 +767,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="10"/>
-      <c r="Z1" s="10"/>
-      <c r="AA1" s="10"/>
-      <c r="AB1" s="10"/>
-      <c r="AC1" s="10"/>
-      <c r="AD1" s="10"/>
-      <c r="AE1" s="10"/>
-      <c r="AF1" s="10"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="16"/>
+      <c r="AE1" s="16"/>
+      <c r="AF1" s="16"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
@@ -777,52 +812,52 @@
       <c r="C2" s="1">
         <v>3</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="11">
         <v>4</v>
       </c>
-      <c r="E2" s="20">
+      <c r="E2" s="11">
         <v>5</v>
       </c>
-      <c r="F2" s="20">
+      <c r="F2" s="11">
         <v>6</v>
       </c>
-      <c r="G2" s="20">
+      <c r="G2" s="11">
         <v>7</v>
       </c>
-      <c r="H2" s="20">
+      <c r="H2" s="11">
         <v>8</v>
       </c>
-      <c r="I2" s="20">
+      <c r="I2" s="11">
         <v>9</v>
       </c>
-      <c r="J2" s="20">
+      <c r="J2" s="11">
         <v>10</v>
       </c>
-      <c r="K2" s="20">
+      <c r="K2" s="11">
         <v>11</v>
       </c>
-      <c r="L2" s="15">
+      <c r="L2" s="7">
         <v>12</v>
       </c>
-      <c r="M2" s="15">
+      <c r="M2" s="7">
         <v>13</v>
       </c>
-      <c r="N2" s="15">
+      <c r="N2" s="7">
         <v>14</v>
       </c>
-      <c r="O2" s="15">
+      <c r="O2" s="7">
         <v>15</v>
       </c>
-      <c r="P2" s="15">
+      <c r="P2" s="7">
         <v>16</v>
       </c>
-      <c r="Q2" s="15">
+      <c r="Q2" s="7">
         <v>17</v>
       </c>
-      <c r="R2" s="15">
+      <c r="R2" s="7">
         <v>18</v>
       </c>
-      <c r="S2" s="15">
+      <c r="S2" s="7">
         <v>19</v>
       </c>
       <c r="T2" s="4">
@@ -866,80 +901,80 @@
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="21" t="s">
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="16" t="s">
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13"/>
-      <c r="W3" s="13"/>
-      <c r="X3" s="13"/>
-      <c r="Y3" s="13"/>
-      <c r="Z3" s="13"/>
-      <c r="AA3" s="13"/>
-      <c r="AB3" s="13"/>
-      <c r="AC3" s="13"/>
-      <c r="AD3" s="13"/>
-      <c r="AE3" s="13"/>
-      <c r="AF3" s="14"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="6"/>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="10"/>
-      <c r="AA5" s="10"/>
-      <c r="AB5" s="10"/>
-      <c r="AC5" s="10"/>
-      <c r="AD5" s="10"/>
-      <c r="AE5" s="10"/>
-      <c r="AF5" s="10"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="16"/>
+      <c r="W5" s="16"/>
+      <c r="X5" s="16"/>
+      <c r="Y5" s="16"/>
+      <c r="Z5" s="16"/>
+      <c r="AA5" s="16"/>
+      <c r="AB5" s="16"/>
+      <c r="AC5" s="16"/>
+      <c r="AD5" s="16"/>
+      <c r="AE5" s="16"/>
+      <c r="AF5" s="16"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
@@ -951,52 +986,52 @@
       <c r="C6" s="1">
         <v>3</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="11">
         <v>4</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="11">
         <v>5</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="11">
         <v>6</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="11">
         <v>7</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="11">
         <v>8</v>
       </c>
-      <c r="I6" s="20">
+      <c r="I6" s="7">
         <v>9</v>
       </c>
-      <c r="J6" s="20">
+      <c r="J6" s="7">
         <v>10</v>
       </c>
-      <c r="K6" s="20">
+      <c r="K6" s="7">
         <v>11</v>
       </c>
-      <c r="L6" s="15">
+      <c r="L6" s="7">
         <v>12</v>
       </c>
-      <c r="M6" s="15">
+      <c r="M6" s="7">
         <v>13</v>
       </c>
-      <c r="N6" s="15">
+      <c r="N6" s="7">
         <v>14</v>
       </c>
-      <c r="O6" s="15">
+      <c r="O6" s="7">
         <v>15</v>
       </c>
-      <c r="P6" s="15">
+      <c r="P6" s="7">
         <v>16</v>
       </c>
-      <c r="Q6" s="15">
+      <c r="Q6" s="4">
         <v>17</v>
       </c>
-      <c r="R6" s="15">
+      <c r="R6" s="4">
         <v>18</v>
       </c>
-      <c r="S6" s="15">
+      <c r="S6" s="4">
         <v>19</v>
       </c>
       <c r="T6" s="4">
@@ -1040,55 +1075,56 @@
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="21" t="s">
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="20" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="21"/>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="16" t="s">
+      <c r="H7" s="22"/>
+      <c r="I7" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="13"/>
-      <c r="W7" s="13"/>
-      <c r="X7" s="13"/>
-      <c r="Y7" s="13"/>
-      <c r="Z7" s="13"/>
-      <c r="AA7" s="13"/>
-      <c r="AB7" s="13"/>
-      <c r="AC7" s="13"/>
-      <c r="AD7" s="13"/>
-      <c r="AE7" s="13"/>
-      <c r="AF7" s="14"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="28"/>
+      <c r="U7" s="28"/>
+      <c r="V7" s="28"/>
+      <c r="W7" s="28"/>
+      <c r="X7" s="28"/>
+      <c r="Y7" s="28"/>
+      <c r="Z7" s="28"/>
+      <c r="AA7" s="28"/>
+      <c r="AB7" s="28"/>
+      <c r="AC7" s="28"/>
+      <c r="AD7" s="28"/>
+      <c r="AE7" s="28"/>
+      <c r="AF7" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="L7:S7"/>
+  <mergeCells count="9">
     <mergeCell ref="A1:AF1"/>
     <mergeCell ref="A5:AF5"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:K3"/>
     <mergeCell ref="L3:S3"/>
     <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:K7"/>
+    <mergeCell ref="Q7:AF7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:P7"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1099,46 +1135,46 @@
   <dimension ref="A1:AF3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="10"/>
-      <c r="Z1" s="10"/>
-      <c r="AA1" s="10"/>
-      <c r="AB1" s="10"/>
-      <c r="AC1" s="10"/>
-      <c r="AD1" s="10"/>
-      <c r="AE1" s="10"/>
-      <c r="AF1" s="10"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="16"/>
+      <c r="AE1" s="16"/>
+      <c r="AF1" s="16"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
@@ -1147,28 +1183,28 @@
       <c r="B2" s="1">
         <v>2</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="8">
         <v>3</v>
       </c>
-      <c r="D2" s="19">
+      <c r="D2" s="10">
         <v>4</v>
       </c>
-      <c r="E2" s="19">
+      <c r="E2" s="10">
         <v>5</v>
       </c>
-      <c r="F2" s="19">
+      <c r="F2" s="10">
         <v>6</v>
       </c>
-      <c r="G2" s="19">
+      <c r="G2" s="10">
         <v>7</v>
       </c>
-      <c r="H2" s="19">
+      <c r="H2" s="10">
         <v>8</v>
       </c>
-      <c r="I2" s="19">
+      <c r="I2" s="9">
         <v>9</v>
       </c>
-      <c r="J2" s="19">
+      <c r="J2" s="9">
         <v>10</v>
       </c>
       <c r="K2" s="2">
@@ -1180,34 +1216,34 @@
       <c r="M2" s="2">
         <v>13</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="11">
         <v>14</v>
       </c>
-      <c r="O2" s="18">
+      <c r="O2" s="10">
         <v>15</v>
       </c>
-      <c r="P2" s="19">
+      <c r="P2" s="10">
         <v>16</v>
       </c>
-      <c r="Q2" s="19">
+      <c r="Q2" s="10">
         <v>17</v>
       </c>
-      <c r="R2" s="19">
+      <c r="R2" s="10">
         <v>18</v>
       </c>
-      <c r="S2" s="19">
+      <c r="S2" s="33">
         <v>19</v>
       </c>
-      <c r="T2" s="19">
+      <c r="T2" s="33">
         <v>20</v>
       </c>
-      <c r="U2" s="19">
+      <c r="U2" s="33">
         <v>21</v>
       </c>
-      <c r="V2" s="19">
+      <c r="V2" s="33">
         <v>22</v>
       </c>
-      <c r="W2" s="20">
+      <c r="W2" s="3">
         <v>23</v>
       </c>
       <c r="X2" s="3">
@@ -1239,57 +1275,57 @@
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="22" t="s">
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="25" t="s">
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="22" t="s">
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="24"/>
-      <c r="X3" s="7" t="s">
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="8"/>
-      <c r="AA3" s="8"/>
-      <c r="AB3" s="8"/>
-      <c r="AC3" s="8"/>
-      <c r="AD3" s="8"/>
-      <c r="AE3" s="8"/>
-      <c r="AF3" s="9"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="35"/>
+      <c r="V3" s="35"/>
+      <c r="W3" s="35"/>
+      <c r="X3" s="35"/>
+      <c r="Y3" s="35"/>
+      <c r="Z3" s="35"/>
+      <c r="AA3" s="35"/>
+      <c r="AB3" s="35"/>
+      <c r="AC3" s="35"/>
+      <c r="AD3" s="35"/>
+      <c r="AE3" s="35"/>
+      <c r="AF3" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A1:AF1"/>
     <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:J3"/>
-    <mergeCell ref="K3:O3"/>
-    <mergeCell ref="P3:W3"/>
-    <mergeCell ref="X3:AF3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="S3:AF3"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1297,130 +1333,130 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F4C548-E4CA-4859-8500-85221C2D7085}">
-  <dimension ref="A1:AF7"/>
+  <dimension ref="A1:AF25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="10"/>
-      <c r="Z1" s="10"/>
-      <c r="AA1" s="10"/>
-      <c r="AB1" s="10"/>
-      <c r="AC1" s="10"/>
-      <c r="AD1" s="10"/>
-      <c r="AE1" s="10"/>
-      <c r="AF1" s="10"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="16"/>
+      <c r="AE1" s="16"/>
+      <c r="AF1" s="16"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A2" s="32">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="8">
         <v>3</v>
       </c>
-      <c r="D2" s="19">
+      <c r="D2" s="10">
         <v>4</v>
       </c>
-      <c r="E2" s="19">
+      <c r="E2" s="10">
         <v>5</v>
       </c>
-      <c r="F2" s="19">
+      <c r="F2" s="10">
         <v>6</v>
       </c>
-      <c r="G2" s="19">
+      <c r="G2" s="10">
         <v>7</v>
       </c>
-      <c r="H2" s="19">
+      <c r="H2" s="10">
         <v>8</v>
       </c>
-      <c r="I2" s="19">
+      <c r="I2" s="10">
         <v>9</v>
       </c>
-      <c r="J2" s="19">
+      <c r="J2" s="10">
         <v>10</v>
       </c>
-      <c r="K2" s="20">
+      <c r="K2" s="11">
         <v>11</v>
       </c>
-      <c r="L2" s="29">
+      <c r="L2" s="13">
         <v>12</v>
       </c>
-      <c r="M2" s="29">
+      <c r="M2" s="13">
         <v>13</v>
       </c>
-      <c r="N2" s="29">
+      <c r="N2" s="13">
         <v>14</v>
       </c>
-      <c r="O2" s="28">
+      <c r="O2" s="12">
         <v>15</v>
       </c>
-      <c r="P2" s="28">
+      <c r="P2" s="12">
         <v>16</v>
       </c>
-      <c r="Q2" s="28">
+      <c r="Q2" s="12">
         <v>17</v>
       </c>
-      <c r="R2" s="28">
+      <c r="R2" s="12">
         <v>18</v>
       </c>
-      <c r="S2" s="28">
+      <c r="S2" s="12">
         <v>19</v>
       </c>
-      <c r="T2" s="19">
+      <c r="T2" s="10">
         <v>20</v>
       </c>
-      <c r="U2" s="19">
+      <c r="U2" s="10">
         <v>21</v>
       </c>
-      <c r="V2" s="19">
+      <c r="V2" s="10">
         <v>22</v>
       </c>
-      <c r="W2" s="20">
+      <c r="W2" s="11">
         <v>23</v>
       </c>
-      <c r="X2" s="20">
+      <c r="X2" s="11">
         <v>24</v>
       </c>
-      <c r="Y2" s="20">
+      <c r="Y2" s="11">
         <v>25</v>
       </c>
-      <c r="Z2" s="20">
+      <c r="Z2" s="11">
         <v>26</v>
       </c>
-      <c r="AA2" s="20">
+      <c r="AA2" s="11">
         <v>27</v>
       </c>
       <c r="AB2" s="4">
@@ -1440,165 +1476,165 @@
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="21" t="s">
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="30" t="s">
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="21" t="s">
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="U3" s="21"/>
-      <c r="V3" s="21"/>
-      <c r="W3" s="21"/>
-      <c r="X3" s="21"/>
-      <c r="Y3" s="21"/>
-      <c r="Z3" s="21"/>
-      <c r="AA3" s="21"/>
-      <c r="AB3" s="31" t="s">
+      <c r="U3" s="19"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="19"/>
+      <c r="X3" s="19"/>
+      <c r="Y3" s="19"/>
+      <c r="Z3" s="19"/>
+      <c r="AA3" s="19"/>
+      <c r="AB3" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="AC3" s="31"/>
-      <c r="AD3" s="31"/>
-      <c r="AE3" s="31"/>
-      <c r="AF3" s="31"/>
+      <c r="AC3" s="28"/>
+      <c r="AD3" s="28"/>
+      <c r="AE3" s="28"/>
+      <c r="AF3" s="28"/>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="10"/>
-      <c r="AA5" s="10"/>
-      <c r="AB5" s="10"/>
-      <c r="AC5" s="10"/>
-      <c r="AD5" s="10"/>
-      <c r="AE5" s="10"/>
-      <c r="AF5" s="10"/>
+      <c r="A5" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="16"/>
+      <c r="W5" s="16"/>
+      <c r="X5" s="16"/>
+      <c r="Y5" s="16"/>
+      <c r="Z5" s="16"/>
+      <c r="AA5" s="16"/>
+      <c r="AB5" s="16"/>
+      <c r="AC5" s="16"/>
+      <c r="AD5" s="16"/>
+      <c r="AE5" s="16"/>
+      <c r="AF5" s="16"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A6" s="32">
+      <c r="A6" s="1">
         <v>1</v>
       </c>
       <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="8">
         <v>3</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="10">
         <v>4</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="10">
         <v>5</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="10">
         <v>6</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="10">
         <v>7</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="10">
         <v>8</v>
       </c>
-      <c r="I6" s="19">
+      <c r="I6" s="12">
         <v>9</v>
       </c>
-      <c r="J6" s="19">
+      <c r="J6" s="12">
         <v>10</v>
       </c>
-      <c r="K6" s="20">
+      <c r="K6" s="13">
         <v>11</v>
       </c>
-      <c r="L6" s="29">
+      <c r="L6" s="13">
         <v>12</v>
       </c>
-      <c r="M6" s="29">
+      <c r="M6" s="13">
         <v>13</v>
       </c>
-      <c r="N6" s="29">
+      <c r="N6" s="11">
         <v>14</v>
       </c>
-      <c r="O6" s="28">
+      <c r="O6" s="10">
         <v>15</v>
       </c>
-      <c r="P6" s="28">
+      <c r="P6" s="10">
         <v>16</v>
       </c>
-      <c r="Q6" s="28">
+      <c r="Q6" s="10">
         <v>17</v>
       </c>
-      <c r="R6" s="28">
+      <c r="R6" s="10">
         <v>18</v>
       </c>
-      <c r="S6" s="28">
+      <c r="S6" s="37">
         <v>19</v>
       </c>
-      <c r="T6" s="19">
+      <c r="T6" s="37">
         <v>20</v>
       </c>
-      <c r="U6" s="19">
+      <c r="U6" s="37">
         <v>21</v>
       </c>
-      <c r="V6" s="19">
+      <c r="V6" s="37">
         <v>22</v>
       </c>
-      <c r="W6" s="20">
+      <c r="W6" s="4">
         <v>23</v>
       </c>
-      <c r="X6" s="20">
+      <c r="X6" s="4">
         <v>24</v>
       </c>
-      <c r="Y6" s="20">
+      <c r="Y6" s="4">
         <v>25</v>
       </c>
-      <c r="Z6" s="20">
+      <c r="Z6" s="4">
         <v>26</v>
       </c>
-      <c r="AA6" s="20">
+      <c r="AA6" s="4">
         <v>27</v>
       </c>
       <c r="AB6" s="4">
@@ -1618,63 +1654,428 @@
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="21" t="s">
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="20" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="21"/>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="30" t="s">
+      <c r="H7" s="22"/>
+      <c r="I7" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="30"/>
-      <c r="S7" s="30"/>
-      <c r="T7" s="21" t="s">
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="U7" s="21"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="21"/>
-      <c r="X7" s="21"/>
-      <c r="Y7" s="21"/>
-      <c r="Z7" s="21"/>
-      <c r="AA7" s="21"/>
-      <c r="AB7" s="31" t="s">
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="30" t="s">
         <v>5</v>
       </c>
+      <c r="T7" s="31"/>
+      <c r="U7" s="31"/>
+      <c r="V7" s="31"/>
+      <c r="W7" s="31"/>
+      <c r="X7" s="31"/>
+      <c r="Y7" s="31"/>
+      <c r="Z7" s="31"/>
+      <c r="AA7" s="31"/>
+      <c r="AB7" s="31"/>
       <c r="AC7" s="31"/>
       <c r="AD7" s="31"/>
       <c r="AE7" s="31"/>
-      <c r="AF7" s="31"/>
+      <c r="AF7" s="32"/>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A9" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="16"/>
+      <c r="W9" s="16"/>
+      <c r="X9" s="16"/>
+      <c r="Y9" s="16"/>
+      <c r="Z9" s="16"/>
+      <c r="AA9" s="16"/>
+      <c r="AB9" s="16"/>
+      <c r="AC9" s="16"/>
+      <c r="AD9" s="16"/>
+      <c r="AE9" s="16"/>
+      <c r="AF9" s="16"/>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2</v>
+      </c>
+      <c r="C10" s="8">
+        <v>3</v>
+      </c>
+      <c r="D10" s="10">
+        <v>4</v>
+      </c>
+      <c r="E10" s="10">
+        <v>5</v>
+      </c>
+      <c r="F10" s="10">
+        <v>6</v>
+      </c>
+      <c r="G10" s="10">
+        <v>7</v>
+      </c>
+      <c r="H10" s="10">
+        <v>8</v>
+      </c>
+      <c r="I10" s="33">
+        <v>9</v>
+      </c>
+      <c r="J10" s="33">
+        <v>10</v>
+      </c>
+      <c r="K10" s="3">
+        <v>11</v>
+      </c>
+      <c r="L10" s="3">
+        <v>12</v>
+      </c>
+      <c r="M10" s="3">
+        <v>13</v>
+      </c>
+      <c r="N10" s="3">
+        <v>14</v>
+      </c>
+      <c r="O10" s="33">
+        <v>15</v>
+      </c>
+      <c r="P10" s="33">
+        <v>16</v>
+      </c>
+      <c r="Q10" s="37">
+        <v>17</v>
+      </c>
+      <c r="R10" s="37">
+        <v>18</v>
+      </c>
+      <c r="S10" s="37">
+        <v>19</v>
+      </c>
+      <c r="T10" s="37">
+        <v>20</v>
+      </c>
+      <c r="U10" s="37">
+        <v>21</v>
+      </c>
+      <c r="V10" s="37">
+        <v>22</v>
+      </c>
+      <c r="W10" s="4">
+        <v>23</v>
+      </c>
+      <c r="X10" s="4">
+        <v>24</v>
+      </c>
+      <c r="Y10" s="4">
+        <v>25</v>
+      </c>
+      <c r="Z10" s="4">
+        <v>26</v>
+      </c>
+      <c r="AA10" s="4">
+        <v>27</v>
+      </c>
+      <c r="AB10" s="4">
+        <v>28</v>
+      </c>
+      <c r="AC10" s="4">
+        <v>29</v>
+      </c>
+      <c r="AD10" s="4">
+        <v>30</v>
+      </c>
+      <c r="AE10" s="4">
+        <v>31</v>
+      </c>
+      <c r="AF10" s="4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A11" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="R11" s="31"/>
+      <c r="S11" s="31"/>
+      <c r="T11" s="31"/>
+      <c r="U11" s="31"/>
+      <c r="V11" s="31"/>
+      <c r="W11" s="31"/>
+      <c r="X11" s="31"/>
+      <c r="Y11" s="31"/>
+      <c r="Z11" s="31"/>
+      <c r="AA11" s="31"/>
+      <c r="AB11" s="31"/>
+      <c r="AC11" s="31"/>
+      <c r="AD11" s="31"/>
+      <c r="AE11" s="31"/>
+      <c r="AF11" s="32"/>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A13" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="16"/>
+      <c r="W13" s="16"/>
+      <c r="X13" s="16"/>
+      <c r="Y13" s="16"/>
+      <c r="Z13" s="16"/>
+      <c r="AA13" s="16"/>
+      <c r="AB13" s="16"/>
+      <c r="AC13" s="16"/>
+      <c r="AD13" s="16"/>
+      <c r="AE13" s="16"/>
+      <c r="AF13" s="16"/>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2</v>
+      </c>
+      <c r="C14" s="8">
+        <v>3</v>
+      </c>
+      <c r="D14" s="10">
+        <v>4</v>
+      </c>
+      <c r="E14" s="10">
+        <v>5</v>
+      </c>
+      <c r="F14" s="10">
+        <v>6</v>
+      </c>
+      <c r="G14" s="10">
+        <v>7</v>
+      </c>
+      <c r="H14" s="10">
+        <v>8</v>
+      </c>
+      <c r="I14" s="10">
+        <v>9</v>
+      </c>
+      <c r="J14" s="10">
+        <v>10</v>
+      </c>
+      <c r="K14" s="11">
+        <v>11</v>
+      </c>
+      <c r="L14" s="3">
+        <v>12</v>
+      </c>
+      <c r="M14" s="3">
+        <v>13</v>
+      </c>
+      <c r="N14" s="3">
+        <v>14</v>
+      </c>
+      <c r="O14" s="33">
+        <v>15</v>
+      </c>
+      <c r="P14" s="33">
+        <v>16</v>
+      </c>
+      <c r="Q14" s="37">
+        <v>17</v>
+      </c>
+      <c r="R14" s="37">
+        <v>18</v>
+      </c>
+      <c r="S14" s="37">
+        <v>19</v>
+      </c>
+      <c r="T14" s="37">
+        <v>20</v>
+      </c>
+      <c r="U14" s="37">
+        <v>21</v>
+      </c>
+      <c r="V14" s="37">
+        <v>22</v>
+      </c>
+      <c r="W14" s="4">
+        <v>23</v>
+      </c>
+      <c r="X14" s="4">
+        <v>24</v>
+      </c>
+      <c r="Y14" s="4">
+        <v>25</v>
+      </c>
+      <c r="Z14" s="4">
+        <v>26</v>
+      </c>
+      <c r="AA14" s="4">
+        <v>27</v>
+      </c>
+      <c r="AB14" s="4">
+        <v>28</v>
+      </c>
+      <c r="AC14" s="4">
+        <v>29</v>
+      </c>
+      <c r="AD14" s="4">
+        <v>30</v>
+      </c>
+      <c r="AE14" s="4">
+        <v>31</v>
+      </c>
+      <c r="AF14" s="4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A15" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="R15" s="31"/>
+      <c r="S15" s="31"/>
+      <c r="T15" s="31"/>
+      <c r="U15" s="31"/>
+      <c r="V15" s="31"/>
+      <c r="W15" s="31"/>
+      <c r="X15" s="31"/>
+      <c r="Y15" s="31"/>
+      <c r="Z15" s="31"/>
+      <c r="AA15" s="31"/>
+      <c r="AB15" s="31"/>
+      <c r="AC15" s="31"/>
+      <c r="AD15" s="31"/>
+      <c r="AE15" s="31"/>
+      <c r="AF15" s="32"/>
+    </row>
+    <row r="25" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J25" s="41"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="22">
+    <mergeCell ref="A13:AF13"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:K15"/>
+    <mergeCell ref="L15:P15"/>
+    <mergeCell ref="Q15:AF15"/>
+    <mergeCell ref="A9:AF9"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="I11:P11"/>
+    <mergeCell ref="Q11:AF11"/>
+    <mergeCell ref="A5:AF5"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="N7:R7"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="S7:AF7"/>
     <mergeCell ref="A1:AF1"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:K3"/>
     <mergeCell ref="L3:S3"/>
     <mergeCell ref="T3:AA3"/>
     <mergeCell ref="AB3:AF3"/>
-    <mergeCell ref="A5:AF5"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:K7"/>
-    <mergeCell ref="L7:S7"/>
-    <mergeCell ref="T7:AA7"/>
-    <mergeCell ref="AB7:AF7"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1685,8 +2086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D47519B6-A97D-4E22-907B-AE70A3F84281}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1695,170 +2096,172 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="29"/>
+      <c r="E1" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="29"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="14">
+        <v>0</v>
+      </c>
+      <c r="B2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="36"/>
-      <c r="E1" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="36"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="35">
+      <c r="C2" s="29"/>
+      <c r="E2" s="14">
         <v>0</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="F2" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="29"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="14">
+        <v>1</v>
+      </c>
+      <c r="B3" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="E2" s="35">
-        <v>0</v>
-      </c>
-      <c r="F2" s="36" t="s">
+      <c r="C3" s="29"/>
+      <c r="E3" s="14">
+        <v>1</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="29"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="14">
+        <v>2</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="29"/>
+      <c r="E4" s="14">
+        <v>2</v>
+      </c>
+      <c r="F4" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="36"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="35">
-        <v>1</v>
-      </c>
-      <c r="B3" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="36"/>
-      <c r="E3" s="35">
-        <v>1</v>
-      </c>
-      <c r="F3" s="36" t="s">
+      <c r="G4" s="29"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="14">
+        <v>3</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="E5" s="14">
+        <v>3</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="29"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="14">
+        <v>4</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="29"/>
+      <c r="E6" s="14">
+        <v>4</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="29"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="14">
         <v>5</v>
       </c>
-      <c r="G3" s="36"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="35">
-        <v>2</v>
-      </c>
-      <c r="B4" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="36"/>
-      <c r="E4" s="35">
-        <v>2</v>
-      </c>
-      <c r="F4" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="36"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="35">
-        <v>3</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="36"/>
-      <c r="E5" s="35">
-        <v>3</v>
-      </c>
-      <c r="F5" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="36"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="35">
-        <v>4</v>
-      </c>
-      <c r="B6" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="36"/>
-      <c r="E6" s="35">
-        <v>4</v>
-      </c>
-      <c r="F6" s="36" t="s">
+      <c r="B7" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="E7" s="14">
+        <v>5</v>
+      </c>
+      <c r="F7" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="36"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="33"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="E7" s="35">
-        <v>5</v>
-      </c>
-      <c r="F7" s="36" t="s">
+      <c r="G7" s="29"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="36">
+        <v>6</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="E8" s="14">
+        <v>6</v>
+      </c>
+      <c r="F8" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="36"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E8" s="35">
-        <v>6</v>
-      </c>
-      <c r="F8" s="36" t="s">
+      <c r="G8" s="29"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E9" s="14">
+        <v>7</v>
+      </c>
+      <c r="F9" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="36"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E9" s="35">
-        <v>7</v>
-      </c>
-      <c r="F9" s="36" t="s">
+      <c r="G9" s="29"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E10" s="14">
+        <v>8</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="29"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E11" s="14">
+        <v>9</v>
+      </c>
+      <c r="F11" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="36"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E10" s="35">
-        <v>8</v>
-      </c>
-      <c r="F10" s="36" t="s">
+      <c r="G11" s="29"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E12" s="14">
+        <v>10</v>
+      </c>
+      <c r="F12" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="36"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E11" s="35">
-        <v>9</v>
-      </c>
-      <c r="F11" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="36"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E12" s="35">
-        <v>10</v>
-      </c>
-      <c r="F12" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="36"/>
+      <c r="G12" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
+  <mergeCells count="20">
+    <mergeCell ref="B8:C8"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="B1:C1"/>
@@ -1867,6 +2270,17 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Instructions.xlsx
+++ b/Instructions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giova\Desktop\Maua-V\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giova\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4914BA33-DA0E-4850-8846-0CB8A54F01C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE883B3-B383-4D8C-919B-C0A835C7C291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{8DA72A7F-A456-49E4-8B2E-F4A65AE08799}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{8DA72A7F-A456-49E4-8B2E-F4A65AE08799}"/>
   </bookViews>
   <sheets>
     <sheet name="W-Func" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
   <si>
     <t>func</t>
   </si>
@@ -153,6 +153,12 @@
   </si>
   <si>
     <t>Move in Registers  (M.R.)</t>
+  </si>
+  <si>
+    <t>NAND</t>
+  </si>
+  <si>
+    <t>NOR</t>
   </si>
 </sst>
 </file>
@@ -302,7 +308,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -342,19 +348,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -366,6 +382,15 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -375,52 +400,30 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -757,7 +760,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0F02056-F6E8-4FE1-BF76-E724F206F91A}">
   <dimension ref="A1:AF7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
@@ -767,40 +770,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="16"/>
-      <c r="AB1" s="16"/>
-      <c r="AC1" s="16"/>
-      <c r="AD1" s="16"/>
-      <c r="AE1" s="16"/>
-      <c r="AF1" s="16"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
+      <c r="AA1" s="18"/>
+      <c r="AB1" s="18"/>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="18"/>
+      <c r="AE1" s="18"/>
+      <c r="AF1" s="18"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
@@ -901,31 +904,31 @@
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="19" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="15" t="s">
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
       <c r="V3" s="5"/>
@@ -941,40 +944,40 @@
       <c r="AF3" s="6"/>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="16"/>
-      <c r="W5" s="16"/>
-      <c r="X5" s="16"/>
-      <c r="Y5" s="16"/>
-      <c r="Z5" s="16"/>
-      <c r="AA5" s="16"/>
-      <c r="AB5" s="16"/>
-      <c r="AC5" s="16"/>
-      <c r="AD5" s="16"/>
-      <c r="AE5" s="16"/>
-      <c r="AF5" s="16"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="18"/>
+      <c r="X5" s="18"/>
+      <c r="Y5" s="18"/>
+      <c r="Z5" s="18"/>
+      <c r="AA5" s="18"/>
+      <c r="AB5" s="18"/>
+      <c r="AC5" s="18"/>
+      <c r="AD5" s="18"/>
+      <c r="AE5" s="18"/>
+      <c r="AF5" s="18"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
@@ -1075,56 +1078,56 @@
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="20" t="s">
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="15" t="s">
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="28"/>
-      <c r="U7" s="28"/>
-      <c r="V7" s="28"/>
-      <c r="W7" s="28"/>
-      <c r="X7" s="28"/>
-      <c r="Y7" s="28"/>
-      <c r="Z7" s="28"/>
-      <c r="AA7" s="28"/>
-      <c r="AB7" s="28"/>
-      <c r="AC7" s="28"/>
-      <c r="AD7" s="28"/>
-      <c r="AE7" s="28"/>
-      <c r="AF7" s="28"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="23"/>
+      <c r="W7" s="23"/>
+      <c r="X7" s="23"/>
+      <c r="Y7" s="23"/>
+      <c r="Z7" s="23"/>
+      <c r="AA7" s="23"/>
+      <c r="AB7" s="23"/>
+      <c r="AC7" s="23"/>
+      <c r="AD7" s="23"/>
+      <c r="AE7" s="23"/>
+      <c r="AF7" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="Q7:AF7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:P7"/>
     <mergeCell ref="A1:AF1"/>
     <mergeCell ref="A5:AF5"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:K3"/>
     <mergeCell ref="L3:S3"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="Q7:AF7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:P7"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1134,47 +1137,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AB4ECB6-D99E-4D4D-B9A0-0215953F1329}">
   <dimension ref="A1:AF3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2:AF2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="16"/>
-      <c r="AB1" s="16"/>
-      <c r="AC1" s="16"/>
-      <c r="AD1" s="16"/>
-      <c r="AE1" s="16"/>
-      <c r="AF1" s="16"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
+      <c r="AA1" s="18"/>
+      <c r="AB1" s="18"/>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="18"/>
+      <c r="AE1" s="18"/>
+      <c r="AF1" s="18"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
@@ -1231,16 +1234,16 @@
       <c r="R2" s="10">
         <v>18</v>
       </c>
-      <c r="S2" s="33">
+      <c r="S2" s="15">
         <v>19</v>
       </c>
-      <c r="T2" s="33">
+      <c r="T2" s="15">
         <v>20</v>
       </c>
-      <c r="U2" s="33">
+      <c r="U2" s="15">
         <v>21</v>
       </c>
-      <c r="V2" s="33">
+      <c r="V2" s="15">
         <v>22</v>
       </c>
       <c r="W2" s="3">
@@ -1275,48 +1278,48 @@
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="19" t="s">
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="34" t="s">
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="19" t="s">
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="35" t="s">
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35"/>
-      <c r="V3" s="35"/>
-      <c r="W3" s="35"/>
-      <c r="X3" s="35"/>
-      <c r="Y3" s="35"/>
-      <c r="Z3" s="35"/>
-      <c r="AA3" s="35"/>
-      <c r="AB3" s="35"/>
-      <c r="AC3" s="35"/>
-      <c r="AD3" s="35"/>
-      <c r="AE3" s="35"/>
-      <c r="AF3" s="35"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="29"/>
+      <c r="Y3" s="29"/>
+      <c r="Z3" s="29"/>
+      <c r="AA3" s="29"/>
+      <c r="AB3" s="29"/>
+      <c r="AC3" s="29"/>
+      <c r="AD3" s="29"/>
+      <c r="AE3" s="29"/>
+      <c r="AF3" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1335,47 +1338,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F4C548-E4CA-4859-8500-85221C2D7085}">
   <dimension ref="A1:AF25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="16"/>
-      <c r="AB1" s="16"/>
-      <c r="AC1" s="16"/>
-      <c r="AD1" s="16"/>
-      <c r="AE1" s="16"/>
-      <c r="AF1" s="16"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
+      <c r="AA1" s="18"/>
+      <c r="AB1" s="18"/>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="18"/>
+      <c r="AE1" s="18"/>
+      <c r="AF1" s="18"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
@@ -1476,84 +1479,84 @@
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="19" t="s">
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="27" t="s">
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="19" t="s">
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
-      <c r="X3" s="19"/>
-      <c r="Y3" s="19"/>
-      <c r="Z3" s="19"/>
-      <c r="AA3" s="19"/>
-      <c r="AB3" s="28" t="s">
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="21"/>
+      <c r="Z3" s="21"/>
+      <c r="AA3" s="21"/>
+      <c r="AB3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="AC3" s="28"/>
-      <c r="AD3" s="28"/>
-      <c r="AE3" s="28"/>
-      <c r="AF3" s="28"/>
+      <c r="AC3" s="23"/>
+      <c r="AD3" s="23"/>
+      <c r="AE3" s="23"/>
+      <c r="AF3" s="23"/>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="16"/>
-      <c r="W5" s="16"/>
-      <c r="X5" s="16"/>
-      <c r="Y5" s="16"/>
-      <c r="Z5" s="16"/>
-      <c r="AA5" s="16"/>
-      <c r="AB5" s="16"/>
-      <c r="AC5" s="16"/>
-      <c r="AD5" s="16"/>
-      <c r="AE5" s="16"/>
-      <c r="AF5" s="16"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="18"/>
+      <c r="X5" s="18"/>
+      <c r="Y5" s="18"/>
+      <c r="Z5" s="18"/>
+      <c r="AA5" s="18"/>
+      <c r="AB5" s="18"/>
+      <c r="AC5" s="18"/>
+      <c r="AD5" s="18"/>
+      <c r="AE5" s="18"/>
+      <c r="AF5" s="18"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
@@ -1610,16 +1613,16 @@
       <c r="R6" s="10">
         <v>18</v>
       </c>
-      <c r="S6" s="37">
+      <c r="S6" s="16">
         <v>19</v>
       </c>
-      <c r="T6" s="37">
+      <c r="T6" s="16">
         <v>20</v>
       </c>
-      <c r="U6" s="37">
+      <c r="U6" s="16">
         <v>21</v>
       </c>
-      <c r="V6" s="37">
+      <c r="V6" s="16">
         <v>22</v>
       </c>
       <c r="W6" s="4">
@@ -1654,84 +1657,84 @@
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="20" t="s">
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="38" t="s">
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="20" t="s">
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="30" t="s">
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="T7" s="31"/>
-      <c r="U7" s="31"/>
-      <c r="V7" s="31"/>
-      <c r="W7" s="31"/>
-      <c r="X7" s="31"/>
-      <c r="Y7" s="31"/>
-      <c r="Z7" s="31"/>
-      <c r="AA7" s="31"/>
-      <c r="AB7" s="31"/>
-      <c r="AC7" s="31"/>
-      <c r="AD7" s="31"/>
-      <c r="AE7" s="31"/>
-      <c r="AF7" s="32"/>
+      <c r="T7" s="34"/>
+      <c r="U7" s="34"/>
+      <c r="V7" s="34"/>
+      <c r="W7" s="34"/>
+      <c r="X7" s="34"/>
+      <c r="Y7" s="34"/>
+      <c r="Z7" s="34"/>
+      <c r="AA7" s="34"/>
+      <c r="AB7" s="34"/>
+      <c r="AC7" s="34"/>
+      <c r="AD7" s="34"/>
+      <c r="AE7" s="34"/>
+      <c r="AF7" s="35"/>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="16"/>
-      <c r="T9" s="16"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="16"/>
-      <c r="W9" s="16"/>
-      <c r="X9" s="16"/>
-      <c r="Y9" s="16"/>
-      <c r="Z9" s="16"/>
-      <c r="AA9" s="16"/>
-      <c r="AB9" s="16"/>
-      <c r="AC9" s="16"/>
-      <c r="AD9" s="16"/>
-      <c r="AE9" s="16"/>
-      <c r="AF9" s="16"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="18"/>
+      <c r="W9" s="18"/>
+      <c r="X9" s="18"/>
+      <c r="Y9" s="18"/>
+      <c r="Z9" s="18"/>
+      <c r="AA9" s="18"/>
+      <c r="AB9" s="18"/>
+      <c r="AC9" s="18"/>
+      <c r="AD9" s="18"/>
+      <c r="AE9" s="18"/>
+      <c r="AF9" s="18"/>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
@@ -1758,10 +1761,10 @@
       <c r="H10" s="10">
         <v>8</v>
       </c>
-      <c r="I10" s="33">
+      <c r="I10" s="15">
         <v>9</v>
       </c>
-      <c r="J10" s="33">
+      <c r="J10" s="15">
         <v>10</v>
       </c>
       <c r="K10" s="3">
@@ -1776,28 +1779,28 @@
       <c r="N10" s="3">
         <v>14</v>
       </c>
-      <c r="O10" s="33">
+      <c r="O10" s="15">
         <v>15</v>
       </c>
-      <c r="P10" s="33">
+      <c r="P10" s="15">
         <v>16</v>
       </c>
-      <c r="Q10" s="37">
+      <c r="Q10" s="16">
         <v>17</v>
       </c>
-      <c r="R10" s="37">
+      <c r="R10" s="16">
         <v>18</v>
       </c>
-      <c r="S10" s="37">
+      <c r="S10" s="16">
         <v>19</v>
       </c>
-      <c r="T10" s="37">
+      <c r="T10" s="16">
         <v>20</v>
       </c>
-      <c r="U10" s="37">
+      <c r="U10" s="16">
         <v>21</v>
       </c>
-      <c r="V10" s="37">
+      <c r="V10" s="16">
         <v>22</v>
       </c>
       <c r="W10" s="4">
@@ -1832,82 +1835,82 @@
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="20" t="s">
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="23" t="s">
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="30" t="s">
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="R11" s="31"/>
-      <c r="S11" s="31"/>
-      <c r="T11" s="31"/>
-      <c r="U11" s="31"/>
-      <c r="V11" s="31"/>
-      <c r="W11" s="31"/>
-      <c r="X11" s="31"/>
-      <c r="Y11" s="31"/>
-      <c r="Z11" s="31"/>
-      <c r="AA11" s="31"/>
-      <c r="AB11" s="31"/>
-      <c r="AC11" s="31"/>
-      <c r="AD11" s="31"/>
-      <c r="AE11" s="31"/>
-      <c r="AF11" s="32"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="34"/>
+      <c r="U11" s="34"/>
+      <c r="V11" s="34"/>
+      <c r="W11" s="34"/>
+      <c r="X11" s="34"/>
+      <c r="Y11" s="34"/>
+      <c r="Z11" s="34"/>
+      <c r="AA11" s="34"/>
+      <c r="AB11" s="34"/>
+      <c r="AC11" s="34"/>
+      <c r="AD11" s="34"/>
+      <c r="AE11" s="34"/>
+      <c r="AF11" s="35"/>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16"/>
-      <c r="T13" s="16"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="16"/>
-      <c r="W13" s="16"/>
-      <c r="X13" s="16"/>
-      <c r="Y13" s="16"/>
-      <c r="Z13" s="16"/>
-      <c r="AA13" s="16"/>
-      <c r="AB13" s="16"/>
-      <c r="AC13" s="16"/>
-      <c r="AD13" s="16"/>
-      <c r="AE13" s="16"/>
-      <c r="AF13" s="16"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="18"/>
+      <c r="U13" s="18"/>
+      <c r="V13" s="18"/>
+      <c r="W13" s="18"/>
+      <c r="X13" s="18"/>
+      <c r="Y13" s="18"/>
+      <c r="Z13" s="18"/>
+      <c r="AA13" s="18"/>
+      <c r="AB13" s="18"/>
+      <c r="AC13" s="18"/>
+      <c r="AD13" s="18"/>
+      <c r="AE13" s="18"/>
+      <c r="AF13" s="18"/>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
@@ -1952,28 +1955,28 @@
       <c r="N14" s="3">
         <v>14</v>
       </c>
-      <c r="O14" s="33">
+      <c r="O14" s="15">
         <v>15</v>
       </c>
-      <c r="P14" s="33">
+      <c r="P14" s="15">
         <v>16</v>
       </c>
-      <c r="Q14" s="37">
+      <c r="Q14" s="16">
         <v>17</v>
       </c>
-      <c r="R14" s="37">
+      <c r="R14" s="16">
         <v>18</v>
       </c>
-      <c r="S14" s="37">
+      <c r="S14" s="16">
         <v>19</v>
       </c>
-      <c r="T14" s="37">
+      <c r="T14" s="16">
         <v>20</v>
       </c>
-      <c r="U14" s="37">
+      <c r="U14" s="16">
         <v>21</v>
       </c>
-      <c r="V14" s="37">
+      <c r="V14" s="16">
         <v>22</v>
       </c>
       <c r="W14" s="4">
@@ -2008,74 +2011,74 @@
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="19" t="s">
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="23" t="s">
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="30" t="s">
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="R15" s="31"/>
-      <c r="S15" s="31"/>
-      <c r="T15" s="31"/>
-      <c r="U15" s="31"/>
-      <c r="V15" s="31"/>
-      <c r="W15" s="31"/>
-      <c r="X15" s="31"/>
-      <c r="Y15" s="31"/>
-      <c r="Z15" s="31"/>
-      <c r="AA15" s="31"/>
-      <c r="AB15" s="31"/>
-      <c r="AC15" s="31"/>
-      <c r="AD15" s="31"/>
-      <c r="AE15" s="31"/>
-      <c r="AF15" s="32"/>
+      <c r="R15" s="34"/>
+      <c r="S15" s="34"/>
+      <c r="T15" s="34"/>
+      <c r="U15" s="34"/>
+      <c r="V15" s="34"/>
+      <c r="W15" s="34"/>
+      <c r="X15" s="34"/>
+      <c r="Y15" s="34"/>
+      <c r="Z15" s="34"/>
+      <c r="AA15" s="34"/>
+      <c r="AB15" s="34"/>
+      <c r="AC15" s="34"/>
+      <c r="AD15" s="34"/>
+      <c r="AE15" s="34"/>
+      <c r="AF15" s="35"/>
     </row>
     <row r="25" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J25" s="41"/>
+      <c r="J25" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A13:AF13"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:K15"/>
-    <mergeCell ref="L15:P15"/>
-    <mergeCell ref="Q15:AF15"/>
-    <mergeCell ref="A9:AF9"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="I11:P11"/>
-    <mergeCell ref="Q11:AF11"/>
+    <mergeCell ref="A1:AF1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="L3:S3"/>
+    <mergeCell ref="T3:AA3"/>
+    <mergeCell ref="AB3:AF3"/>
     <mergeCell ref="A5:AF5"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="N7:R7"/>
     <mergeCell ref="I7:M7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="S7:AF7"/>
-    <mergeCell ref="A1:AF1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="L3:S3"/>
-    <mergeCell ref="T3:AA3"/>
-    <mergeCell ref="AB3:AF3"/>
+    <mergeCell ref="A9:AF9"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="I11:P11"/>
+    <mergeCell ref="Q11:AF11"/>
+    <mergeCell ref="A13:AF13"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:K15"/>
+    <mergeCell ref="L15:P15"/>
+    <mergeCell ref="Q15:AF15"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2084,10 +2087,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D47519B6-A97D-4E22-907B-AE70A3F84281}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2095,172 +2098,202 @@
     <col min="5" max="5" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="29"/>
+      <c r="C1" s="40"/>
       <c r="E1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="29"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G1" s="40"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="14">
         <v>0</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="29"/>
+      <c r="C2" s="40"/>
       <c r="E2" s="14">
         <v>0</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="29"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G2" s="40"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="14">
         <v>1</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="29"/>
+      <c r="C3" s="40"/>
       <c r="E3" s="14">
         <v>1</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="29"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G3" s="40"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
         <v>2</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="29"/>
+      <c r="C4" s="40"/>
       <c r="E4" s="14">
         <v>2</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="29"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G4" s="40"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="14">
         <v>3</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="29"/>
+      <c r="C5" s="40"/>
       <c r="E5" s="14">
         <v>3</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="29"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G5" s="40"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="14">
         <v>4</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="29"/>
+      <c r="C6" s="40"/>
       <c r="E6" s="14">
         <v>4</v>
       </c>
-      <c r="F6" s="29" t="s">
+      <c r="F6" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="29"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G6" s="40"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="14">
         <v>5</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="29"/>
+      <c r="C7" s="40"/>
       <c r="E7" s="14">
         <v>5</v>
       </c>
-      <c r="F7" s="29" t="s">
+      <c r="F7" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="29"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="36">
+      <c r="G7" s="40"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="14">
         <v>6</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="29"/>
+      <c r="C8" s="40"/>
       <c r="E8" s="14">
         <v>6</v>
       </c>
-      <c r="F8" s="29" t="s">
+      <c r="F8" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="29"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G8" s="40"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E9" s="14">
         <v>7</v>
       </c>
-      <c r="F9" s="29" t="s">
+      <c r="F9" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="29"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G9" s="40"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E10" s="14">
         <v>8</v>
       </c>
-      <c r="F10" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="29"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F10" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="40"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E11" s="14">
         <v>9</v>
       </c>
-      <c r="F11" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="29"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F11" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="40"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E12" s="14">
         <v>10</v>
       </c>
-      <c r="F12" s="29" t="s">
+      <c r="F12" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="40"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E13" s="14">
+        <v>11</v>
+      </c>
+      <c r="F13" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="29"/>
+      <c r="G13" s="40"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E14" s="14">
+        <v>12</v>
+      </c>
+      <c r="F14" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="40"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I16" s="17"/>
+    </row>
+    <row r="20" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J20" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="22">
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="F7:G7"/>
@@ -2277,10 +2310,6 @@
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
